--- a/Code/Results/Cases/Case_0_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_227/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1416632349855576</v>
+        <v>0.04675869436393043</v>
       </c>
       <c r="D2">
-        <v>0.006574761342239555</v>
+        <v>0.02109931985517299</v>
       </c>
       <c r="E2">
-        <v>0.09465968896945043</v>
+        <v>0.1072129439688219</v>
       </c>
       <c r="F2">
-        <v>3.632429305166085</v>
+        <v>4.213970251737038</v>
       </c>
       <c r="G2">
-        <v>0.0007998160282565576</v>
+        <v>0.002597538318608457</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.246906829696087</v>
+        <v>0.2415610514328819</v>
       </c>
       <c r="K2">
-        <v>7.11795096080823</v>
+        <v>4.244402053868555</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082221374844814</v>
+        <v>2.120912810895483</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1213775610070797</v>
+        <v>0.04162138080707223</v>
       </c>
       <c r="D3">
-        <v>0.005721515682820311</v>
+        <v>0.02090468328288608</v>
       </c>
       <c r="E3">
-        <v>0.08389550983412875</v>
+        <v>0.1054105674011048</v>
       </c>
       <c r="F3">
-        <v>3.295425397918564</v>
+        <v>4.164899039714925</v>
       </c>
       <c r="G3">
-        <v>0.0008120771866334834</v>
+        <v>0.002604782024412401</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2190489186067737</v>
+        <v>0.236741573115296</v>
       </c>
       <c r="K3">
-        <v>6.160073218049945</v>
+        <v>4.036320840420501</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.136221482682409</v>
+        <v>2.141224808104731</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1092290705816055</v>
+        <v>0.03848973142326884</v>
       </c>
       <c r="D4">
-        <v>0.005201950294384972</v>
+        <v>0.02078927943432518</v>
       </c>
       <c r="E4">
-        <v>0.07748110972887901</v>
+        <v>0.1043644044330776</v>
       </c>
       <c r="F4">
-        <v>3.099144454961845</v>
+        <v>4.137388990938092</v>
       </c>
       <c r="G4">
-        <v>0.0008197474232696068</v>
+        <v>0.002609456241278159</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2025927258934317</v>
+        <v>0.2339371624792008</v>
       </c>
       <c r="K4">
-        <v>5.587671118856804</v>
+        <v>3.911394907304725</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.171646675156993</v>
+        <v>2.15444067618818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1043434936400587</v>
+        <v>0.0372190620329178</v>
       </c>
       <c r="D5">
-        <v>0.004991018040742645</v>
+        <v>0.02074329842788281</v>
       </c>
       <c r="E5">
-        <v>0.07491007803819016</v>
+        <v>0.1039532441808966</v>
       </c>
       <c r="F5">
-        <v>3.021519571348733</v>
+        <v>4.126832491864633</v>
       </c>
       <c r="G5">
-        <v>0.0008229128344030358</v>
+        <v>0.002611418217697417</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1960291730755657</v>
+        <v>0.2328329746568798</v>
       </c>
       <c r="K5">
-        <v>5.357798435571453</v>
+        <v>3.861192595878094</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.186614496887209</v>
+        <v>2.16001258286596</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.103535845399378</v>
+        <v>0.0370083949280513</v>
       </c>
       <c r="D6">
-        <v>0.004956033334913457</v>
+        <v>0.02073572700250104</v>
       </c>
       <c r="E6">
-        <v>0.07448558505266689</v>
+        <v>0.1038858853882267</v>
       </c>
       <c r="F6">
-        <v>3.008764116898902</v>
+        <v>4.12511896088418</v>
       </c>
       <c r="G6">
-        <v>0.0008234409580830543</v>
+        <v>0.002611747463670276</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1949473470593546</v>
+        <v>0.2326519501665913</v>
       </c>
       <c r="K6">
-        <v>5.319817276225535</v>
+        <v>3.852898971682976</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.189130964071616</v>
+        <v>2.160949024367746</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1091629337485642</v>
+        <v>0.03847257271254989</v>
       </c>
       <c r="D7">
-        <v>0.005199102719075199</v>
+        <v>0.0207886550588583</v>
       </c>
       <c r="E7">
-        <v>0.07744626981106251</v>
+        <v>0.1043587980715088</v>
       </c>
       <c r="F7">
-        <v>3.098088407573528</v>
+        <v>4.137243980160434</v>
       </c>
       <c r="G7">
-        <v>0.0008197899472182087</v>
+        <v>0.002609482469258721</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2025036561757503</v>
+        <v>0.2339221149679389</v>
       </c>
       <c r="K7">
-        <v>5.584557974090274</v>
+        <v>3.910715012255935</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.171846431165349</v>
+        <v>2.154515067465667</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1345972349643461</v>
+        <v>0.04498251807407883</v>
       </c>
       <c r="D8">
-        <v>0.006279467888660406</v>
+        <v>0.02103136625876267</v>
       </c>
       <c r="E8">
-        <v>0.09090385049781702</v>
+        <v>0.1065788928573497</v>
       </c>
       <c r="F8">
-        <v>3.51382045507205</v>
+        <v>4.196503854875829</v>
       </c>
       <c r="G8">
-        <v>0.0008040168322691568</v>
+        <v>0.002599989064390117</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2371535741503266</v>
+        <v>0.2398669976257679</v>
       </c>
       <c r="K8">
-        <v>6.784041861130504</v>
+        <v>4.172062362103134</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.10034483416927</v>
+        <v>2.127761438219949</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1875463815321297</v>
+        <v>0.05793823704993883</v>
       </c>
       <c r="D9">
-        <v>0.008449324038807049</v>
+        <v>0.02153927250319398</v>
       </c>
       <c r="E9">
-        <v>0.1191600612957551</v>
+        <v>0.1114154612602256</v>
       </c>
       <c r="F9">
-        <v>4.429993325904832</v>
+        <v>4.333726580807763</v>
       </c>
       <c r="G9">
-        <v>0.0007739993056925335</v>
+        <v>0.002583159735728203</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3113314833813376</v>
+        <v>0.2527668912322554</v>
       </c>
       <c r="K9">
-        <v>9.291132191238603</v>
+        <v>4.707438833005142</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9801704740204968</v>
+        <v>2.081238579057469</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.229378641017675</v>
+        <v>0.06758704851191055</v>
       </c>
       <c r="D10">
-        <v>0.01010558472587775</v>
+        <v>0.02193116146774798</v>
       </c>
       <c r="E10">
-        <v>0.1415887821018771</v>
+        <v>0.115267983985877</v>
       </c>
       <c r="F10">
-        <v>5.192108218381946</v>
+        <v>4.447689305572254</v>
       </c>
       <c r="G10">
-        <v>0.0007521512947161768</v>
+        <v>0.002571870167870588</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3714312573860923</v>
+        <v>0.2630225563364661</v>
       </c>
       <c r="K10">
-        <v>11.27758630368538</v>
+        <v>5.11528651814757</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9075055475702243</v>
+        <v>2.050728949326327</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2493440649327425</v>
+        <v>0.07200808722718932</v>
       </c>
       <c r="D11">
-        <v>0.01088219016048342</v>
+        <v>0.02211336164740274</v>
       </c>
       <c r="E11">
-        <v>0.1523044548055807</v>
+        <v>0.1170866257945207</v>
       </c>
       <c r="F11">
-        <v>5.56593974941822</v>
+        <v>4.502463225691315</v>
       </c>
       <c r="G11">
-        <v>0.0007421578991267106</v>
+        <v>0.002566964528057956</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4005000677685047</v>
+        <v>0.2678618121195058</v>
       </c>
       <c r="K11">
-        <v>12.22685293391436</v>
+        <v>5.304104344808877</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8788207582821457</v>
+        <v>2.037657195882829</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2570703861375989</v>
+        <v>0.07368703621209249</v>
       </c>
       <c r="D12">
-        <v>0.01118069560178014</v>
+        <v>0.02218290827958214</v>
       </c>
       <c r="E12">
-        <v>0.1564516655529644</v>
+        <v>0.1177848858006527</v>
       </c>
       <c r="F12">
-        <v>5.712227532787978</v>
+        <v>4.523632220667565</v>
       </c>
       <c r="G12">
-        <v>0.0007383554239113517</v>
+        <v>0.002565139726948053</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4118103391056138</v>
+        <v>0.2697196892441127</v>
       </c>
       <c r="K12">
-        <v>12.59437432603357</v>
+        <v>5.376086979131799</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.868691955506975</v>
+        <v>2.032824296587705</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2553984374114293</v>
+        <v>0.07332522738269631</v>
       </c>
       <c r="D13">
-        <v>0.01111618977946449</v>
+        <v>0.02216790585463357</v>
       </c>
       <c r="E13">
-        <v>0.1555542265255241</v>
+        <v>0.1176340757536209</v>
       </c>
       <c r="F13">
-        <v>5.680496601254532</v>
+        <v>4.519054002004054</v>
       </c>
       <c r="G13">
-        <v>0.0007391753529136129</v>
+        <v>0.002565531272582319</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.40936002845595</v>
+        <v>0.2693184288010855</v>
       </c>
       <c r="K13">
-        <v>12.51483644457403</v>
+        <v>5.360562674995094</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8708388235843358</v>
+        <v>2.033859923974077</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2499761869420496</v>
+        <v>0.07214611787100011</v>
       </c>
       <c r="D14">
-        <v>0.01090665242711708</v>
+        <v>0.02211907231579957</v>
       </c>
       <c r="E14">
-        <v>0.152643754433047</v>
+        <v>0.1171438796417164</v>
       </c>
       <c r="F14">
-        <v>5.577874862617165</v>
+        <v>4.504196214675801</v>
       </c>
       <c r="G14">
-        <v>0.00074184549904099</v>
+        <v>0.002566813743407926</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4014241564482859</v>
+        <v>0.26801415058668</v>
       </c>
       <c r="K14">
-        <v>12.25691798367376</v>
+        <v>5.310016699124674</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.877972069217563</v>
+        <v>2.037257237828172</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2466775427117511</v>
+        <v>0.07142451101816505</v>
       </c>
       <c r="D15">
-        <v>0.01077891811822695</v>
+        <v>0.02208923177637345</v>
       </c>
       <c r="E15">
-        <v>0.150873173389968</v>
+        <v>0.1168448701677214</v>
       </c>
       <c r="F15">
-        <v>5.515659005123069</v>
+        <v>4.495151210089972</v>
       </c>
       <c r="G15">
-        <v>0.000743478326849592</v>
+        <v>0.002567603566311934</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3966044043643961</v>
+        <v>0.267218555124856</v>
       </c>
       <c r="K15">
-        <v>12.10003432608949</v>
+        <v>5.279118793426903</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8824404280123304</v>
+        <v>2.039353469593379</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2280952116729509</v>
+        <v>0.06729878181525351</v>
       </c>
       <c r="D16">
-        <v>0.01005538452378829</v>
+        <v>0.02191933213745756</v>
       </c>
       <c r="E16">
-        <v>0.1409000733531869</v>
+        <v>0.1151504679705297</v>
       </c>
       <c r="F16">
-        <v>5.168290045707948</v>
+        <v>4.444169180930459</v>
       </c>
       <c r="G16">
-        <v>0.0007528024522819851</v>
+        <v>0.002572195372782637</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3695706884514607</v>
+        <v>0.2627098285919089</v>
       </c>
       <c r="K16">
-        <v>11.2165881506287</v>
+        <v>5.103013706041111</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9094765790003976</v>
+        <v>2.051599548674432</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2169555162087846</v>
+        <v>0.06477607546551667</v>
       </c>
       <c r="D17">
-        <v>0.00961814100934788</v>
+        <v>0.02181610053761318</v>
       </c>
       <c r="E17">
-        <v>0.1349234052656563</v>
+        <v>0.1141279907270665</v>
       </c>
       <c r="F17">
-        <v>4.962675059851961</v>
+        <v>4.413648270422328</v>
       </c>
       <c r="G17">
-        <v>0.0007585018049379733</v>
+        <v>0.002575071059091695</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.353464164438634</v>
+        <v>0.2599886571152865</v>
       </c>
       <c r="K17">
-        <v>10.68727486166421</v>
+        <v>4.995826798541941</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9272496562434753</v>
+        <v>2.059319585669954</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2106341249894967</v>
+        <v>0.06332805538801267</v>
       </c>
       <c r="D18">
-        <v>0.009368750368537349</v>
+        <v>0.02175709494429157</v>
       </c>
       <c r="E18">
-        <v>0.131532938955683</v>
+        <v>0.1135461068872061</v>
       </c>
       <c r="F18">
-        <v>4.846907265282795</v>
+        <v>4.396369045984585</v>
       </c>
       <c r="G18">
-        <v>0.0007617755096012811</v>
+        <v>0.002576746743536809</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.344359060901553</v>
+        <v>0.2584398583725829</v>
       </c>
       <c r="K18">
-        <v>10.38701602701735</v>
+        <v>4.934484458210875</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9378762106771035</v>
+        <v>2.063835865410638</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2085077070500461</v>
+        <v>0.06283828443164907</v>
       </c>
       <c r="D19">
-        <v>0.009284643062088094</v>
+        <v>0.02173718071267672</v>
       </c>
       <c r="E19">
-        <v>0.1303926573079757</v>
+        <v>0.1133501567808075</v>
       </c>
       <c r="F19">
-        <v>4.80811671958989</v>
+        <v>4.390565758961827</v>
       </c>
       <c r="G19">
-        <v>0.0007628834529555856</v>
+        <v>0.002577317829456473</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3413020645649283</v>
+        <v>0.2579182588681874</v>
       </c>
       <c r="K19">
-        <v>10.28603228556324</v>
+        <v>4.913767753277853</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9415407191420542</v>
+        <v>2.065378008719492</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2181322626682203</v>
+        <v>0.06504431240723818</v>
       </c>
       <c r="D20">
-        <v>0.009664461978200478</v>
+        <v>0.02182705147201247</v>
       </c>
       <c r="E20">
-        <v>0.1355546479817455</v>
+        <v>0.1142361911106597</v>
       </c>
       <c r="F20">
-        <v>4.984299333435189</v>
+        <v>4.416868709251759</v>
       </c>
       <c r="G20">
-        <v>0.0007578956239203178</v>
+        <v>0.002574762696679531</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3551619267648647</v>
+        <v>0.2602766360984248</v>
       </c>
       <c r="K20">
-        <v>10.74317787014985</v>
+        <v>5.00720501121333</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9253151859758617</v>
+        <v>2.058489910004027</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2515640494147391</v>
+        <v>0.07249231883569962</v>
       </c>
       <c r="D21">
-        <v>0.01096806840976328</v>
+        <v>0.02213340104991701</v>
       </c>
       <c r="E21">
-        <v>0.1534960621443986</v>
+        <v>0.1172876015309043</v>
       </c>
       <c r="F21">
-        <v>5.607881640200105</v>
+        <v>4.508548663906367</v>
       </c>
       <c r="G21">
-        <v>0.0007410617995609432</v>
+        <v>0.002566436160723162</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4037464153649495</v>
+        <v>0.2683965577359544</v>
       </c>
       <c r="K21">
-        <v>12.33244274649212</v>
+        <v>5.324850139596549</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8758560004501561</v>
+        <v>2.036256178442414</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2744001072753406</v>
+        <v>0.07738809684758508</v>
       </c>
       <c r="D22">
-        <v>0.01184657055612348</v>
+        <v>0.02233682613322685</v>
       </c>
       <c r="E22">
-        <v>0.1657529027736615</v>
+        <v>0.1193377491735674</v>
       </c>
       <c r="F22">
-        <v>6.043497310584399</v>
+        <v>4.570960195007927</v>
       </c>
       <c r="G22">
-        <v>0.0007299473424058999</v>
+        <v>0.002561185707640018</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4372968345127504</v>
+        <v>0.2738513581896171</v>
       </c>
       <c r="K22">
-        <v>13.4190167322339</v>
+        <v>5.535259995672845</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8478742030712709</v>
+        <v>2.022408123873959</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2621096194247201</v>
+        <v>0.07477248102250655</v>
       </c>
       <c r="D23">
-        <v>0.01137482576342208</v>
+        <v>0.02222796514445591</v>
       </c>
       <c r="E23">
-        <v>0.1591564935979619</v>
+        <v>0.1182384093297486</v>
       </c>
       <c r="F23">
-        <v>5.808111117720983</v>
+        <v>4.537419916804083</v>
       </c>
       <c r="G23">
-        <v>0.0007358936696533754</v>
+        <v>0.002563970531677096</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4192048036657638</v>
+        <v>0.2709263723906332</v>
       </c>
       <c r="K23">
-        <v>12.83412509213207</v>
+        <v>5.422700134433057</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8623700351513861</v>
+        <v>2.029736259501107</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2175999994389173</v>
+        <v>0.06492303528537491</v>
       </c>
       <c r="D24">
-        <v>0.009643514159026978</v>
+        <v>0.02182209948358604</v>
       </c>
       <c r="E24">
-        <v>0.1352691222558242</v>
+        <v>0.1141872551838148</v>
       </c>
       <c r="F24">
-        <v>4.974515449645025</v>
+        <v>4.415411915607251</v>
       </c>
       <c r="G24">
-        <v>0.0007581696867351022</v>
+        <v>0.002574902037339933</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3543938903102912</v>
+        <v>0.2601463921145211</v>
       </c>
       <c r="K24">
-        <v>10.71789161227946</v>
+        <v>5.002060047179441</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9261884949668229</v>
+        <v>2.058864763721886</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1727948508244737</v>
+        <v>0.05441156793030189</v>
       </c>
       <c r="D25">
-        <v>0.007854096236510344</v>
+        <v>0.02139852877850501</v>
       </c>
       <c r="E25">
-        <v>0.1112667620976389</v>
+        <v>0.1100548630893243</v>
       </c>
       <c r="F25">
-        <v>4.168787511254607</v>
+        <v>4.294320331998136</v>
       </c>
       <c r="G25">
-        <v>0.0007820547694161033</v>
+        <v>0.002587522690463137</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2904299017132388</v>
+        <v>0.249142025477525</v>
       </c>
       <c r="K25">
-        <v>8.591662854488277</v>
+        <v>4.560099141298053</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.010220293972182</v>
+        <v>2.093183234409196</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_227/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04675869436393043</v>
+        <v>0.1416632349855576</v>
       </c>
       <c r="D2">
-        <v>0.02109931985517299</v>
+        <v>0.006574761341877178</v>
       </c>
       <c r="E2">
-        <v>0.1072129439688219</v>
+        <v>0.09465968896945043</v>
       </c>
       <c r="F2">
-        <v>4.213970251737038</v>
+        <v>3.632429305166056</v>
       </c>
       <c r="G2">
-        <v>0.002597538318608457</v>
+        <v>0.000799816028188053</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2415610514328819</v>
+        <v>0.2469068296961581</v>
       </c>
       <c r="K2">
-        <v>4.244402053868555</v>
+        <v>7.117950960808173</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.120912810895483</v>
+        <v>1.082221374844785</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04162138080707223</v>
+        <v>0.1213775610070513</v>
       </c>
       <c r="D3">
-        <v>0.02090468328288608</v>
+        <v>0.005721515682441947</v>
       </c>
       <c r="E3">
-        <v>0.1054105674011048</v>
+        <v>0.08389550983410032</v>
       </c>
       <c r="F3">
-        <v>4.164899039714925</v>
+        <v>3.295425397918535</v>
       </c>
       <c r="G3">
-        <v>0.002604782024412401</v>
+        <v>0.0008120771865685857</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.236741573115296</v>
+        <v>0.2190489186065747</v>
       </c>
       <c r="K3">
-        <v>4.036320840420501</v>
+        <v>6.160073218049888</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.141224808104731</v>
+        <v>1.136221482682402</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03848973142326884</v>
+        <v>0.1092290705818328</v>
       </c>
       <c r="D4">
-        <v>0.02078927943432518</v>
+        <v>0.005201950294498658</v>
       </c>
       <c r="E4">
-        <v>0.1043644044330776</v>
+        <v>0.07748110972887545</v>
       </c>
       <c r="F4">
-        <v>4.137388990938092</v>
+        <v>3.099144454961873</v>
       </c>
       <c r="G4">
-        <v>0.002609456241278159</v>
+        <v>0.0008197474233288118</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2339371624792008</v>
+        <v>0.2025927258934246</v>
       </c>
       <c r="K4">
-        <v>3.911394907304725</v>
+        <v>5.587671118856804</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.15444067618818</v>
+        <v>1.171646675156985</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0372190620329178</v>
+        <v>0.1043434936400445</v>
       </c>
       <c r="D5">
-        <v>0.02074329842788281</v>
+        <v>0.004991018040742645</v>
       </c>
       <c r="E5">
-        <v>0.1039532441808966</v>
+        <v>0.07491007803819016</v>
       </c>
       <c r="F5">
-        <v>4.126832491864633</v>
+        <v>3.021519571348733</v>
       </c>
       <c r="G5">
-        <v>0.002611418217697417</v>
+        <v>0.0008229128342852744</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2328329746568798</v>
+        <v>0.1960291730756154</v>
       </c>
       <c r="K5">
-        <v>3.861192595878094</v>
+        <v>5.35779843557151</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.16001258286596</v>
+        <v>1.186614496887195</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0370083949280513</v>
+        <v>0.1035358453991364</v>
       </c>
       <c r="D6">
-        <v>0.02073572700250104</v>
+        <v>0.00495603333489214</v>
       </c>
       <c r="E6">
-        <v>0.1038858853882267</v>
+        <v>0.07448558505259228</v>
       </c>
       <c r="F6">
-        <v>4.12511896088418</v>
+        <v>3.008764116898845</v>
       </c>
       <c r="G6">
-        <v>0.002611747463670276</v>
+        <v>0.0008234409580206361</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2326519501665913</v>
+        <v>0.1949473470592267</v>
       </c>
       <c r="K6">
-        <v>3.852898971682976</v>
+        <v>5.319817276225763</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.160949024367746</v>
+        <v>1.189130964071509</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03847257271254989</v>
+        <v>0.10916293374855</v>
       </c>
       <c r="D7">
-        <v>0.0207886550588583</v>
+        <v>0.005199102719421589</v>
       </c>
       <c r="E7">
-        <v>0.1043587980715088</v>
+        <v>0.0774462698111158</v>
       </c>
       <c r="F7">
-        <v>4.137243980160434</v>
+        <v>3.098088407573528</v>
       </c>
       <c r="G7">
-        <v>0.002609482469258721</v>
+        <v>0.0008197899472754286</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2339221149679389</v>
+        <v>0.202503656175729</v>
       </c>
       <c r="K7">
-        <v>3.910715012255935</v>
+        <v>5.584557974090217</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.154515067465667</v>
+        <v>1.171846431165285</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04498251807407883</v>
+        <v>0.1345972349649003</v>
       </c>
       <c r="D8">
-        <v>0.02103136625876267</v>
+        <v>0.006279467888436585</v>
       </c>
       <c r="E8">
-        <v>0.1065788928573497</v>
+        <v>0.09090385049785255</v>
       </c>
       <c r="F8">
-        <v>4.196503854875829</v>
+        <v>3.51382045507205</v>
       </c>
       <c r="G8">
-        <v>0.002599989064390117</v>
+        <v>0.0008040168322708284</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2398669976257679</v>
+        <v>0.2371535741502271</v>
       </c>
       <c r="K8">
-        <v>4.172062362103134</v>
+        <v>6.784041861130561</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.127761438219949</v>
+        <v>1.100344834169221</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05793823704993883</v>
+        <v>0.1875463815319023</v>
       </c>
       <c r="D9">
-        <v>0.02153927250319398</v>
+        <v>0.008449324038640071</v>
       </c>
       <c r="E9">
-        <v>0.1114154612602256</v>
+        <v>0.119160061295716</v>
       </c>
       <c r="F9">
-        <v>4.333726580807763</v>
+        <v>4.429993325904803</v>
       </c>
       <c r="G9">
-        <v>0.002583159735728203</v>
+        <v>0.0007739993056323191</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2527668912322554</v>
+        <v>0.3113314833813092</v>
       </c>
       <c r="K9">
-        <v>4.707438833005142</v>
+        <v>9.291132191238717</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.081238579057469</v>
+        <v>0.9801704740205253</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06758704851191055</v>
+        <v>0.2293786410176608</v>
       </c>
       <c r="D10">
-        <v>0.02193116146774798</v>
+        <v>0.01010558472584222</v>
       </c>
       <c r="E10">
-        <v>0.115267983985877</v>
+        <v>0.1415887821018913</v>
       </c>
       <c r="F10">
-        <v>4.447689305572254</v>
+        <v>5.192108218382032</v>
       </c>
       <c r="G10">
-        <v>0.002571870167870588</v>
+        <v>0.0007521512947107147</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2630225563364661</v>
+        <v>0.3714312573860354</v>
       </c>
       <c r="K10">
-        <v>5.11528651814757</v>
+        <v>11.27758630368533</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.050728949326327</v>
+        <v>0.9075055475702669</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07200808722718932</v>
+        <v>0.249344064933311</v>
       </c>
       <c r="D11">
-        <v>0.02211336164740274</v>
+        <v>0.01088219016044789</v>
       </c>
       <c r="E11">
-        <v>0.1170866257945207</v>
+        <v>0.152304454805634</v>
       </c>
       <c r="F11">
-        <v>4.502463225691315</v>
+        <v>5.565939749418249</v>
       </c>
       <c r="G11">
-        <v>0.002566964528057956</v>
+        <v>0.0007421578991200396</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2678618121195058</v>
+        <v>0.4005000677684905</v>
       </c>
       <c r="K11">
-        <v>5.304104344808877</v>
+        <v>12.22685293391447</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.037657195882829</v>
+        <v>0.8788207582821457</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07368703621209249</v>
+        <v>0.2570703861372294</v>
       </c>
       <c r="D12">
-        <v>0.02218290827958214</v>
+        <v>0.01118069560176593</v>
       </c>
       <c r="E12">
-        <v>0.1177848858006527</v>
+        <v>0.1564516655529502</v>
       </c>
       <c r="F12">
-        <v>4.523632220667565</v>
+        <v>5.712227532788035</v>
       </c>
       <c r="G12">
-        <v>0.002565139726948053</v>
+        <v>0.0007383554239648965</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2697196892441127</v>
+        <v>0.4118103391056707</v>
       </c>
       <c r="K12">
-        <v>5.376086979131799</v>
+        <v>12.59437432603374</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.032824296587705</v>
+        <v>0.8686919555069892</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07332522738269631</v>
+        <v>0.2553984374114009</v>
       </c>
       <c r="D13">
-        <v>0.02216790585463357</v>
+        <v>0.01111618977929751</v>
       </c>
       <c r="E13">
-        <v>0.1176340757536209</v>
+        <v>0.1555542265255241</v>
       </c>
       <c r="F13">
-        <v>4.519054002004054</v>
+        <v>5.680496601254561</v>
       </c>
       <c r="G13">
-        <v>0.002565531272582319</v>
+        <v>0.0007391753529951795</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2693184288010855</v>
+        <v>0.4093600284559784</v>
       </c>
       <c r="K13">
-        <v>5.360562674995094</v>
+        <v>12.51483644457403</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.033859923974077</v>
+        <v>0.8708388235843501</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07214611787100011</v>
+        <v>0.2499761869422628</v>
       </c>
       <c r="D14">
-        <v>0.02211907231579957</v>
+        <v>0.01090665242707445</v>
       </c>
       <c r="E14">
-        <v>0.1171438796417164</v>
+        <v>0.1526437544330363</v>
       </c>
       <c r="F14">
-        <v>4.504196214675801</v>
+        <v>5.577874862617193</v>
       </c>
       <c r="G14">
-        <v>0.002566813743407926</v>
+        <v>0.0007418454989890516</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.26801415058668</v>
+        <v>0.4014241564483569</v>
       </c>
       <c r="K14">
-        <v>5.310016699124674</v>
+        <v>12.25691798367382</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.037257237828172</v>
+        <v>0.8779720692175772</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07142451101816505</v>
+        <v>0.2466775427115238</v>
       </c>
       <c r="D15">
-        <v>0.02208923177637345</v>
+        <v>0.01077891811839748</v>
       </c>
       <c r="E15">
-        <v>0.1168448701677214</v>
+        <v>0.150873173389936</v>
       </c>
       <c r="F15">
-        <v>4.495151210089972</v>
+        <v>5.515659005123041</v>
       </c>
       <c r="G15">
-        <v>0.002567603566311934</v>
+        <v>0.0007434783266093397</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.267218555124856</v>
+        <v>0.3966044043643393</v>
       </c>
       <c r="K15">
-        <v>5.279118793426903</v>
+        <v>12.10003432608931</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.039353469593379</v>
+        <v>0.8824404280123304</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06729878181525351</v>
+        <v>0.2280952116731498</v>
       </c>
       <c r="D16">
-        <v>0.02191933213745756</v>
+        <v>0.01005538452379184</v>
       </c>
       <c r="E16">
-        <v>0.1151504679705297</v>
+        <v>0.1409000733531229</v>
       </c>
       <c r="F16">
-        <v>4.444169180930459</v>
+        <v>5.168290045707948</v>
       </c>
       <c r="G16">
-        <v>0.002572195372782637</v>
+        <v>0.0007528024521252481</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2627098285919089</v>
+        <v>0.3695706884515317</v>
       </c>
       <c r="K16">
-        <v>5.103013706041111</v>
+        <v>11.21658815062864</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.051599548674432</v>
+        <v>0.9094765790003976</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06477607546551667</v>
+        <v>0.2169555162091115</v>
       </c>
       <c r="D17">
-        <v>0.02181610053761318</v>
+        <v>0.009618141009219983</v>
       </c>
       <c r="E17">
-        <v>0.1141279907270665</v>
+        <v>0.1349234052656101</v>
       </c>
       <c r="F17">
-        <v>4.413648270422328</v>
+        <v>4.962675059851904</v>
       </c>
       <c r="G17">
-        <v>0.002575071059091695</v>
+        <v>0.000758501804943379</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2599886571152865</v>
+        <v>0.3534641644387051</v>
       </c>
       <c r="K17">
-        <v>4.995826798541941</v>
+        <v>10.68727486166392</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.059319585669954</v>
+        <v>0.9272496562434469</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06332805538801267</v>
+        <v>0.2106341249895678</v>
       </c>
       <c r="D18">
-        <v>0.02175709494429157</v>
+        <v>0.009368750368523138</v>
       </c>
       <c r="E18">
-        <v>0.1135461068872061</v>
+        <v>0.1315329389556297</v>
       </c>
       <c r="F18">
-        <v>4.396369045984585</v>
+        <v>4.846907265282852</v>
       </c>
       <c r="G18">
-        <v>0.002576746743536809</v>
+        <v>0.000761775509598976</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2584398583725829</v>
+        <v>0.344359060901624</v>
       </c>
       <c r="K18">
-        <v>4.934484458210875</v>
+        <v>10.38701602701735</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.063835865410638</v>
+        <v>0.9378762106771035</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06283828443164907</v>
+        <v>0.2085077070498329</v>
       </c>
       <c r="D19">
-        <v>0.02173718071267672</v>
+        <v>0.009284643061874931</v>
       </c>
       <c r="E19">
-        <v>0.1133501567808075</v>
+        <v>0.1303926573079792</v>
       </c>
       <c r="F19">
-        <v>4.390565758961827</v>
+        <v>4.80811671958989</v>
       </c>
       <c r="G19">
-        <v>0.002577317829456473</v>
+        <v>0.0007628834530132895</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2579182588681874</v>
+        <v>0.3413020645648288</v>
       </c>
       <c r="K19">
-        <v>4.913767753277853</v>
+        <v>10.28603228556307</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.065378008719492</v>
+        <v>0.9415407191420115</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06504431240723818</v>
+        <v>0.2181322626681919</v>
       </c>
       <c r="D20">
-        <v>0.02182705147201247</v>
+        <v>0.009664461978065475</v>
       </c>
       <c r="E20">
-        <v>0.1142361911106597</v>
+        <v>0.1355546479817491</v>
       </c>
       <c r="F20">
-        <v>4.416868709251759</v>
+        <v>4.984299333435189</v>
       </c>
       <c r="G20">
-        <v>0.002574762696679531</v>
+        <v>0.0007578956237912493</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2602766360984248</v>
+        <v>0.3551619267649073</v>
       </c>
       <c r="K20">
-        <v>5.00720501121333</v>
+        <v>10.74317787014985</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.058489910004027</v>
+        <v>0.9253151859758475</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07249231883569962</v>
+        <v>0.2515640494150801</v>
       </c>
       <c r="D21">
-        <v>0.02213340104991701</v>
+        <v>0.01096806840993381</v>
       </c>
       <c r="E21">
-        <v>0.1172876015309043</v>
+        <v>0.1534960621443986</v>
       </c>
       <c r="F21">
-        <v>4.508548663906367</v>
+        <v>5.607881640200105</v>
       </c>
       <c r="G21">
-        <v>0.002566436160723162</v>
+        <v>0.0007410617995367403</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2683965577359544</v>
+        <v>0.403746415364779</v>
       </c>
       <c r="K21">
-        <v>5.324850139596549</v>
+        <v>12.33244274649195</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.036256178442414</v>
+        <v>0.8758560004502129</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07738809684758508</v>
+        <v>0.2744001072751132</v>
       </c>
       <c r="D22">
-        <v>0.02233682613322685</v>
+        <v>0.01184657055610927</v>
       </c>
       <c r="E22">
-        <v>0.1193377491735674</v>
+        <v>0.1657529027735762</v>
       </c>
       <c r="F22">
-        <v>4.570960195007927</v>
+        <v>6.043497310584371</v>
       </c>
       <c r="G22">
-        <v>0.002561185707640018</v>
+        <v>0.0007299473424322856</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2738513581896171</v>
+        <v>0.4372968345129067</v>
       </c>
       <c r="K22">
-        <v>5.535259995672845</v>
+        <v>13.41901673223413</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.022408123873959</v>
+        <v>0.8478742030712567</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07477248102250655</v>
+        <v>0.2621096194247343</v>
       </c>
       <c r="D23">
-        <v>0.02222796514445591</v>
+        <v>0.01137482576343629</v>
       </c>
       <c r="E23">
-        <v>0.1182384093297486</v>
+        <v>0.1591564935979903</v>
       </c>
       <c r="F23">
-        <v>4.537419916804083</v>
+        <v>5.808111117720983</v>
       </c>
       <c r="G23">
-        <v>0.002563970531677096</v>
+        <v>0.0007358936697103857</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2709263723906332</v>
+        <v>0.4192048036656786</v>
       </c>
       <c r="K23">
-        <v>5.422700134433057</v>
+        <v>12.83412509213201</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.029736259501107</v>
+        <v>0.8623700351514003</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06492303528537491</v>
+        <v>0.2175999994389315</v>
       </c>
       <c r="D24">
-        <v>0.02182209948358604</v>
+        <v>0.009643514158824473</v>
       </c>
       <c r="E24">
-        <v>0.1141872551838148</v>
+        <v>0.1352691222557922</v>
       </c>
       <c r="F24">
-        <v>4.415411915607251</v>
+        <v>4.97451544964494</v>
       </c>
       <c r="G24">
-        <v>0.002574902037339933</v>
+        <v>0.0007581696866833658</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2601463921145211</v>
+        <v>0.3543938903102628</v>
       </c>
       <c r="K24">
-        <v>5.002060047179441</v>
+        <v>10.7178916122794</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.058864763721886</v>
+        <v>0.926188494966766</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05441156793030189</v>
+        <v>0.1727948508239336</v>
       </c>
       <c r="D25">
-        <v>0.02139852877850501</v>
+        <v>0.007854096236677321</v>
       </c>
       <c r="E25">
-        <v>0.1100548630893243</v>
+        <v>0.111266762097646</v>
       </c>
       <c r="F25">
-        <v>4.294320331998136</v>
+        <v>4.16878751125455</v>
       </c>
       <c r="G25">
-        <v>0.002587522690463137</v>
+        <v>0.0007820547694918758</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.249142025477525</v>
+        <v>0.2904299017134093</v>
       </c>
       <c r="K25">
-        <v>4.560099141298053</v>
+        <v>8.59166285448805</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.093183234409196</v>
+        <v>1.010220293972154</v>
       </c>
       <c r="O25">
         <v>0</v>
